--- a/data/output/prediction_Close_BTC.xlsx
+++ b/data/output/prediction_Close_BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +458,7 @@
         <v>0.1003962399398635</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0006139511933795916</v>
+        <v>0.0006138469469600949</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.04734559831185869</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06152841315326185</v>
+        <v>0.06152842560246263</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>-0.1044974303611408</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05214928615285963</v>
+        <v>0.05214948232460692</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.002630676354028694</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04688653162444112</v>
+        <v>-0.04688672676649652</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>-0.02628994553348463</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.01992861013985703</v>
+        <v>-0.01992836523031372</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.005134527817078904</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.03630056167199491</v>
+        <v>-0.03630076626129508</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>-0.01353746317221116</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.006182424548773824</v>
+        <v>-0.006182425508914235</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>-0.03447283217250963</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.006602915185629499</v>
+        <v>-0.006602968488977012</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>-0.02215839596802383</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02136562001574127</v>
+        <v>-0.02136562453104141</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.0496771839912391</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01742774722772289</v>
+        <v>-0.01742764230501948</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>-0.005774921881410933</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02946968185690224</v>
+        <v>0.02946957949093765</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>-0.00322397263703067</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02028800547912368</v>
+        <v>0.02028816482165219</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>-0.007763121143595342</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004594878475963071</v>
+        <v>0.004594878712980588</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.01733860506675811</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00796211004945846</v>
+        <v>-0.007962266088021863</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.009162636565832827</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002646513878531209</v>
+        <v>0.002646617904192183</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>-0.008658457767896977</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01477182908523034</v>
+        <v>0.01477172864263032</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.01057428878887023</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.005116773069479663</v>
+        <v>-0.005116722874085156</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.03547006675217901</v>
       </c>
       <c r="B20" t="n">
-        <v>0.008906010677121046</v>
+        <v>0.008906113614404632</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>-0.008868076947532444</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02093312319408014</v>
+        <v>0.02093297504097436</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>-0.009850292500255264</v>
       </c>
       <c r="B22" t="n">
-        <v>0.005086278783874576</v>
+        <v>0.00508627979317211</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>-0.02180748428132162</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.005924217840890478</v>
+        <v>-0.00592431857048048</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>-0.02060082227653481</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01449288376219471</v>
+        <v>-0.01449278711531932</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>-0.003763632670310102</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.02739012349140069</v>
+        <v>-0.02739007719521958</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.004999548559698752</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.004555389673498667</v>
+        <v>-0.004555390384473057</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.01139883810856546</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00210477024987199</v>
+        <v>0.002104718545581363</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>-0.01028229081557974</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005994534940302998</v>
+        <v>0.005994587906439364</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.01926013120167447</v>
       </c>
       <c r="B29" t="n">
-        <v>0.001679456952427216</v>
+        <v>0.001679560483630382</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>-0.01144227745768411</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01257060957335732</v>
+        <v>0.01257061021838268</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>-0.01058332576957888</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.007766135163812748</v>
+        <v>-0.007766238337204356</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>-0.004299657437842441</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00858761550875542</v>
+        <v>-0.00858756500723068</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>0.006409961253210028</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.009682597273567239</v>
+        <v>-0.00968254594673823</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>0.008590981990728608</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0003147480027134719</v>
+        <v>0.0003146433812766247</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>0.03808397301398081</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008503606628471161</v>
+        <v>0.008503556081565833</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>0.03385840680505225</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03792225184742826</v>
+        <v>0.03792210973251109</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>-0.02320621734790862</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03280882286863829</v>
+        <v>0.03280907582040626</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>0.01451491048544185</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.003937735766957218</v>
+        <v>-0.003937736148355242</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>-0.004921804039007327</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.001791951715237161</v>
+        <v>-0.001792049111680072</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>-0.0003475344128212043</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0004081534116728847</v>
+        <v>0.000408153491019192</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>-0.01632994300379131</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.01982575314808344</v>
+        <v>-0.01982575703997647</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>0.002774058844849492</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.01910767868027108</v>
+        <v>-0.0191075814639472</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>0.04550026847944544</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.005841636912469639</v>
+        <v>-0.005841637504442332</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>-0.02670952614050037</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04350320782523909</v>
+        <v>0.04350330945818648</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>-0.104539948786357</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01385643135569303</v>
+        <v>-0.01385653001977616</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>-0.1525677793793303</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.07985570324950864</v>
+        <v>-0.07985571145152903</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>0.1002115684402707</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1477979236897742</v>
+        <v>-0.147797878767463</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>-0.03062354366159958</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01421707381032178</v>
+        <v>0.01421689147663585</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>-0.026766399232244</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006356252559591269</v>
+        <v>0.006356375472220677</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>0.01677305124617945</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.009377087567214559</v>
+        <v>-0.009377149964747034</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>-0.01417105988684497</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005238489791871359</v>
+        <v>0.005238368883798472</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>0.001786821887998613</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.02029799658321529</v>
+        <v>-0.02029794064702983</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>0.0004725539953920332</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004535999001729962</v>
+        <v>0.004536062029579568</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>-0.05661060404156792</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005419552172616804</v>
+        <v>0.005419553176341907</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>0.02784776288354252</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0450257620898924</v>
+        <v>-0.04502589940245727</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>0.02291720320295276</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006819837120012551</v>
+        <v>0.006819967239302116</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>-0.0002505868624886887</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02987235948570799</v>
+        <v>0.02987242721610883</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>-0.004638140695062631</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0310831415252526</v>
+        <v>0.03108308514259939</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>-0.01889346120327318</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.0017387455770006</v>
+        <v>-0.001738685603724477</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>0.01406343228021179</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.03353063423974589</v>
+        <v>-0.03353070069447384</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>0.04292192204564493</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.009099558301240762</v>
+        <v>-0.009099497097782461</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>-0.01091191199426511</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03510253127685203</v>
+        <v>0.03510229264497333</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>0.00677253117024712</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.008120999545745633</v>
+        <v>-0.008120757564272552</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>-0.007421841286355146</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01138788313199512</v>
+        <v>0.01138770288412871</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>0.007200670308000312</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.01389591733660467</v>
+        <v>-0.01389573739630023</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>-0.0148751770092268</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004765545071014898</v>
+        <v>0.004765423454299977</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>0.02275210193169386</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01057509972410031</v>
+        <v>-0.01057497882278291</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>-0.005562320142260546</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01599008297881532</v>
+        <v>0.01599020647839566</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>0.004733486441493184</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00290230396736213</v>
+        <v>0.002902061590788207</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>0.03229536571300429</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01014394516542616</v>
+        <v>0.01014394761165072</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>0.001599310023742362</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01875360881318322</v>
+        <v>0.01875378987535825</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>-0.02541755042203242</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01331837706614714</v>
+        <v>0.01331820357692948</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>-0.04262209197455569</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.01221503114234501</v>
+        <v>-0.01221526921111149</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>-0.01168650475026389</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0453946199526527</v>
+        <v>-0.04539433412887739</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>0.02740160473145892</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.02569796228988785</v>
+        <v>-0.02569790395934568</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>-0.004204603849787603</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01941489140600972</v>
+        <v>0.01941483191194671</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>-0.0001925929014063854</v>
       </c>
       <c r="B77" t="n">
-        <v>0.007408880558280373</v>
+        <v>0.007409066324184366</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>-0.0025553638570468</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007725657854152246</v>
+        <v>0.007725413886689125</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>0.008361996608877931</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.005786171475387292</v>
+        <v>-0.005786295582733914</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>-0.01267081627317523</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02653643694966945</v>
+        <v>0.02653668554586908</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>-0.009565934397528508</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003266878163248776</v>
+        <v>0.003266878552935282</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>0.005193379640447304</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02688457456138771</v>
+        <v>-0.02688463897347759</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>-0.001563734207117307</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.006960505903592207</v>
+        <v>-0.00696056877955975</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>0.003929651229441333</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.000912935226457634</v>
+        <v>-0.0009128121504726749</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>0.0001385388353263295</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01401929379191991</v>
+        <v>0.01401929550845082</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>0.01045063520917999</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002203295387067428</v>
+        <v>0.002203234996217773</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>-0.001099096636671959</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.002011392736243067</v>
+        <v>-0.002011271541494608</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>0.00703325625515383</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.003383170821594561</v>
+        <v>-0.003383414973788135</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>0.01333844969431119</v>
       </c>
       <c r="B89" t="n">
-        <v>0.007426738489773044</v>
+        <v>0.007426801281345874</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>0.01515963093336481</v>
       </c>
       <c r="B90" t="n">
-        <v>0.00961086205642836</v>
+        <v>0.009610924328759651</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>0.02841029515457372</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0111515721999762</v>
+        <v>0.01115145561185216</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>0.04911903051513278</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02314686921605613</v>
+        <v>0.02314699186880453</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>0.05589304850955479</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04101435409019594</v>
+        <v>0.04101413864778891</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>0.06109742971349519</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0519982827215788</v>
+        <v>0.05199840802272959</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>-0.002402621543176053</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0789961077670025</v>
+        <v>0.07899637171249019</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>-0.02187674242054705</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02685050887141749</v>
+        <v>0.02685041389722898</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>0.01888098598166899</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.0217945450436865</v>
+        <v>-0.02179454713632722</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>0.07299369909677722</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001688119478952643</v>
+        <v>0.001687925836430182</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>0.01093560647947989</v>
       </c>
       <c r="B99" t="n">
-        <v>0.05118786792206542</v>
+        <v>0.05118806656375874</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>-0.01245083521258827</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02612394036532173</v>
+        <v>0.02612385304570886</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>0.01873611916064633</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.004649657673336804</v>
+        <v>-0.004649568397713466</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>-0.002226584082814398</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01544455995661664</v>
+        <v>0.01544447260704729</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>0.002799683539057796</v>
       </c>
       <c r="B103" t="n">
-        <v>0.002546163410960034</v>
+        <v>0.002546252367206847</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>-0.01080656812930236</v>
       </c>
       <c r="B104" t="n">
-        <v>0.001479239448809011</v>
+        <v>0.001479327953779475</v>
       </c>
     </row>
     <row r="105">
@@ -1282,7 +1282,7 @@
         <v>0.02593225355653495</v>
       </c>
       <c r="B106" t="n">
-        <v>0.003790533836600218</v>
+        <v>0.003790355670405532</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>-0.01032248649356937</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02532921277136602</v>
+        <v>0.02532921722750103</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>-0.002431330219096139</v>
       </c>
       <c r="B108" t="n">
-        <v>0.006712937844120859</v>
+        <v>0.006713025280253859</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>-0.02898301815672788</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.07842984551354e-05</v>
+        <v>-1.069802452846602e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>0.02077940155592373</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.02354481091187743</v>
+        <v>-0.02354498757245516</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>-0.01201050031064099</v>
       </c>
       <c r="B111" t="n">
-        <v>0.007100248851111601</v>
+        <v>0.007100425511689323</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>-0.05214170035251797</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.006330570076386266</v>
+        <v>-0.006330658338711714</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>-0.007883685677702701</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.04691549639434989</v>
+        <v>-0.04691550063389371</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>0.006856380761501413</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.02466056582232845</v>
+        <v>-0.0246605681318357</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>0.01936986197704016</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.01127486257838761</v>
+        <v>-0.01127476776701108</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>0.0913804911936591</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02551687949892667</v>
+        <v>0.02551659908697701</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>-0.03371139328266537</v>
       </c>
       <c r="B117" t="n">
-        <v>0.07399954698242439</v>
+        <v>0.07399982739437405</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>0.043770785975072</v>
       </c>
       <c r="B118" t="n">
-        <v>0.003319149205207594</v>
+        <v>0.003318976173316557</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>0.01101885444004402</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03724798878212177</v>
+        <v>0.03724807846133871</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>-0.01582526439406351</v>
       </c>
       <c r="B120" t="n">
-        <v>0.02918862520429499</v>
+        <v>0.02918870855696909</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>-0.01110131671752157</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.006449054157652512</v>
+        <v>-0.006449298593647512</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>-0.0100581845457679</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.02076980487507818</v>
+        <v>-0.02076956043908318</v>
       </c>
     </row>
     <row r="123">
@@ -1426,7 +1426,7 @@
         <v>0.01314574289204451</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.02760978466234754</v>
+        <v>-0.02760987068615073</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>-0.01503320139794795</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.00771114980222265</v>
+        <v>-0.007711237157845829</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>0.02084293424389649</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.01213779893365441</v>
+        <v>-0.01213762555422804</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>-0.006949915104726756</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01898618807683228</v>
+        <v>0.01898610197877915</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>-0.04850310083198828</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.001066893268665936</v>
+        <v>-0.001067065740514295</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>0.002486802159232582</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.03846942590521252</v>
+        <v>-0.03846943604605535</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>-0.00950689504881197</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.01197874757367856</v>
+        <v>-0.01197838821331132</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>-0.02243747239116978</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.008578239863872739</v>
+        <v>-0.008578513374683183</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>-0.06388169730657545</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.01601527265553671</v>
+        <v>-0.01601527560768723</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>-0.01044269208369109</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.05374447946524263</v>
+        <v>-0.05374448972491663</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>0.1795324892434778</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.02916803256960776</v>
+        <v>-0.02916788696566641</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>0.02283352955286055</v>
       </c>
       <c r="B135" t="n">
-        <v>0.108422344282074</v>
+        <v>0.1084222136179278</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>-0.01571849708059325</v>
       </c>
       <c r="B136" t="n">
-        <v>0.07281837174587125</v>
+        <v>0.07281846867300601</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>0.02894097097910908</v>
       </c>
       <c r="B137" t="n">
-        <v>0.008590414658550927</v>
+        <v>0.008590415378815663</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>0.0915382366931734</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02077650928915098</v>
+        <v>0.02077642923662815</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>0.01168104377544488</v>
       </c>
       <c r="B139" t="n">
-        <v>0.06327007006001573</v>
+        <v>0.06327023359835593</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>0.01391791517117547</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03191173131500236</v>
+        <v>0.03191158262469784</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>-0.03087510251124037</v>
       </c>
       <c r="B141" t="n">
-        <v>0.02767672724988657</v>
+        <v>0.02767680362445901</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>0.03761048387612398</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.01652241871694748</v>
+        <v>-0.01652256696269916</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>-0.03017060445376707</v>
       </c>
       <c r="B143" t="n">
-        <v>0.01410886355984076</v>
+        <v>0.01410901163084155</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/prediction_Close_BTC.xlsx
+++ b/data/output/prediction_Close_BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +458,7 @@
         <v>0.1003962399398635</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0006138469469600949</v>
+        <v>0.0006139511933795916</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.04734559831185869</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06152842560246263</v>
+        <v>0.06152841315326185</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>-0.1044974303611408</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05214948232460692</v>
+        <v>0.05214928615285963</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.002630676354028694</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04688672676649652</v>
+        <v>-0.04688653162444112</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>-0.02628994553348463</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.01992836523031372</v>
+        <v>-0.01992861013985703</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.005134527817078904</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.03630076626129508</v>
+        <v>-0.03630056167199491</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>-0.01353746317221116</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.006182425508914235</v>
+        <v>-0.006182424548773824</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>-0.03447283217250963</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.006602968488977012</v>
+        <v>-0.006602915185629499</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>-0.02215839596802383</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02136562453104141</v>
+        <v>-0.02136562001574127</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.0496771839912391</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01742764230501948</v>
+        <v>-0.01742774722772289</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>-0.005774921881410933</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02946957949093765</v>
+        <v>0.02946968185690224</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>-0.00322397263703067</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02028816482165219</v>
+        <v>0.02028800547912368</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>-0.007763121143595342</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004594878712980588</v>
+        <v>0.004594878475963071</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.01733860506675811</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.007962266088021863</v>
+        <v>-0.00796211004945846</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.009162636565832827</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002646617904192183</v>
+        <v>0.002646513878531209</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>-0.008658457767896977</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01477172864263032</v>
+        <v>0.01477182908523034</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.01057428878887023</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.005116722874085156</v>
+        <v>-0.005116773069479663</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.03547006675217901</v>
       </c>
       <c r="B20" t="n">
-        <v>0.008906113614404632</v>
+        <v>0.008906010677121046</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>-0.008868076947532444</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02093297504097436</v>
+        <v>0.02093312319408014</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>-0.009850292500255264</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00508627979317211</v>
+        <v>0.005086278783874576</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>-0.02180748428132162</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.00592431857048048</v>
+        <v>-0.005924217840890478</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>-0.02060082227653481</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01449278711531932</v>
+        <v>-0.01449288376219471</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>-0.003763632670310102</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.02739007719521958</v>
+        <v>-0.02739012349140069</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.004999548559698752</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.004555390384473057</v>
+        <v>-0.004555389673498667</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.01139883810856546</v>
       </c>
       <c r="B27" t="n">
-        <v>0.002104718545581363</v>
+        <v>0.00210477024987199</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>-0.01028229081557974</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005994587906439364</v>
+        <v>0.005994534940302998</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.01926013120167447</v>
       </c>
       <c r="B29" t="n">
-        <v>0.001679560483630382</v>
+        <v>0.001679456952427216</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>-0.01144227745768411</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01257061021838268</v>
+        <v>0.01257060957335732</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>-0.01058332576957888</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.007766238337204356</v>
+        <v>-0.007766135163812748</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>-0.004299657437842441</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00858756500723068</v>
+        <v>-0.00858761550875542</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>0.006409961253210028</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.00968254594673823</v>
+        <v>-0.009682597273567239</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>0.008590981990728608</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0003146433812766247</v>
+        <v>0.0003147480027134719</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>0.03808397301398081</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008503556081565833</v>
+        <v>0.008503606628471161</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>0.03385840680505225</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03792210973251109</v>
+        <v>0.03792225184742826</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>-0.02320621734790862</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03280907582040626</v>
+        <v>0.03280882286863829</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>0.01451491048544185</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.003937736148355242</v>
+        <v>-0.003937735766957218</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>-0.004921804039007327</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.001792049111680072</v>
+        <v>-0.001791951715237161</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>-0.0003475344128212043</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000408153491019192</v>
+        <v>0.0004081534116728847</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>-0.01632994300379131</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.01982575703997647</v>
+        <v>-0.01982575314808344</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>0.002774058844849492</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0191075814639472</v>
+        <v>-0.01910767868027108</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>0.04550026847944544</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.005841637504442332</v>
+        <v>-0.005841636912469639</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>-0.02670952614050037</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04350330945818648</v>
+        <v>0.04350320782523909</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>-0.104539948786357</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01385653001977616</v>
+        <v>-0.01385643135569303</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>-0.1525677793793303</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.07985571145152903</v>
+        <v>-0.07985570324950864</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>0.1002115684402707</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.147797878767463</v>
+        <v>-0.1477979236897742</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>-0.03062354366159958</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01421689147663585</v>
+        <v>0.01421707381032178</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>-0.026766399232244</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006356375472220677</v>
+        <v>0.006356252559591269</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>0.01677305124617945</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.009377149964747034</v>
+        <v>-0.009377087567214559</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>-0.01417105988684497</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005238368883798472</v>
+        <v>0.005238489791871359</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>0.001786821887998613</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.02029794064702983</v>
+        <v>-0.02029799658321529</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>0.0004725539953920332</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004536062029579568</v>
+        <v>0.004535999001729962</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>-0.05661060404156792</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005419553176341907</v>
+        <v>0.005419552172616804</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>0.02784776288354252</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.04502589940245727</v>
+        <v>-0.0450257620898924</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>0.02291720320295276</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006819967239302116</v>
+        <v>0.006819837120012551</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>-0.0002505868624886887</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02987242721610883</v>
+        <v>0.02987235948570799</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>-0.004638140695062631</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03108308514259939</v>
+        <v>0.0310831415252526</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>-0.01889346120327318</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.001738685603724477</v>
+        <v>-0.0017387455770006</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>0.01406343228021179</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.03353070069447384</v>
+        <v>-0.03353063423974589</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>0.04292192204564493</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.009099497097782461</v>
+        <v>-0.009099558301240762</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>-0.01091191199426511</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03510229264497333</v>
+        <v>0.03510253127685203</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>0.00677253117024712</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.008120757564272552</v>
+        <v>-0.008120999545745633</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>-0.007421841286355146</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01138770288412871</v>
+        <v>0.01138788313199512</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>0.007200670308000312</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.01389573739630023</v>
+        <v>-0.01389591733660467</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>-0.0148751770092268</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004765423454299977</v>
+        <v>0.004765545071014898</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>0.02275210193169386</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01057497882278291</v>
+        <v>-0.01057509972410031</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>-0.005562320142260546</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01599020647839566</v>
+        <v>0.01599008297881532</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>0.004733486441493184</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002902061590788207</v>
+        <v>0.00290230396736213</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>0.03229536571300429</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01014394761165072</v>
+        <v>0.01014394516542616</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>0.001599310023742362</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01875378987535825</v>
+        <v>0.01875360881318322</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>-0.02541755042203242</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01331820357692948</v>
+        <v>0.01331837706614714</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>-0.04262209197455569</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.01221526921111149</v>
+        <v>-0.01221503114234501</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>-0.01168650475026389</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.04539433412887739</v>
+        <v>-0.0453946199526527</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>0.02740160473145892</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.02569790395934568</v>
+        <v>-0.02569796228988785</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>-0.004204603849787603</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01941483191194671</v>
+        <v>0.01941489140600972</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>-0.0001925929014063854</v>
       </c>
       <c r="B77" t="n">
-        <v>0.007409066324184366</v>
+        <v>0.007408880558280373</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>-0.0025553638570468</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007725413886689125</v>
+        <v>0.007725657854152246</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>0.008361996608877931</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.005786295582733914</v>
+        <v>-0.005786171475387292</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>-0.01267081627317523</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02653668554586908</v>
+        <v>0.02653643694966945</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>-0.009565934397528508</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003266878552935282</v>
+        <v>0.003266878163248776</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>0.005193379640447304</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02688463897347759</v>
+        <v>-0.02688457456138771</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>-0.001563734207117307</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.00696056877955975</v>
+        <v>-0.006960505903592207</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>0.003929651229441333</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.0009128121504726749</v>
+        <v>-0.000912935226457634</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>0.0001385388353263295</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01401929550845082</v>
+        <v>0.01401929379191991</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>0.01045063520917999</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002203234996217773</v>
+        <v>0.002203295387067428</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>-0.001099096636671959</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.002011271541494608</v>
+        <v>-0.002011392736243067</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>0.00703325625515383</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.003383414973788135</v>
+        <v>-0.003383170821594561</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>0.01333844969431119</v>
       </c>
       <c r="B89" t="n">
-        <v>0.007426801281345874</v>
+        <v>0.007426738489773044</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>0.01515963093336481</v>
       </c>
       <c r="B90" t="n">
-        <v>0.009610924328759651</v>
+        <v>0.00961086205642836</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>0.02841029515457372</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01115145561185216</v>
+        <v>0.0111515721999762</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>0.04911903051513278</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02314699186880453</v>
+        <v>0.02314686921605613</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>0.05589304850955479</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04101413864778891</v>
+        <v>0.04101435409019594</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>0.06109742971349519</v>
       </c>
       <c r="B94" t="n">
-        <v>0.05199840802272959</v>
+        <v>0.0519982827215788</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>-0.002402621543176053</v>
       </c>
       <c r="B95" t="n">
-        <v>0.07899637171249019</v>
+        <v>0.0789961077670025</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>-0.02187674242054705</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02685041389722898</v>
+        <v>0.02685050887141749</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>0.01888098598166899</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.02179454713632722</v>
+        <v>-0.0217945450436865</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>0.07299369909677722</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001687925836430182</v>
+        <v>0.001688119478952643</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>0.01093560647947989</v>
       </c>
       <c r="B99" t="n">
-        <v>0.05118806656375874</v>
+        <v>0.05118786792206542</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>-0.01245083521258827</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02612385304570886</v>
+        <v>0.02612394036532173</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>0.01873611916064633</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.004649568397713466</v>
+        <v>-0.004649657673336804</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>-0.002226584082814398</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01544447260704729</v>
+        <v>0.01544455995661664</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>0.002799683539057796</v>
       </c>
       <c r="B103" t="n">
-        <v>0.002546252367206847</v>
+        <v>0.002546163410960034</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>-0.01080656812930236</v>
       </c>
       <c r="B104" t="n">
-        <v>0.001479327953779475</v>
+        <v>0.001479239448809011</v>
       </c>
     </row>
     <row r="105">
@@ -1282,7 +1282,7 @@
         <v>0.02593225355653495</v>
       </c>
       <c r="B106" t="n">
-        <v>0.003790355670405532</v>
+        <v>0.003790533836600218</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>-0.01032248649356937</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02532921722750103</v>
+        <v>0.02532921277136602</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>-0.002431330219096139</v>
       </c>
       <c r="B108" t="n">
-        <v>0.006713025280253859</v>
+        <v>0.006712937844120859</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>-0.02898301815672788</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.069802452846602e-05</v>
+        <v>-1.07842984551354e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>0.02077940155592373</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.02354498757245516</v>
+        <v>-0.02354481091187743</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>-0.01201050031064099</v>
       </c>
       <c r="B111" t="n">
-        <v>0.007100425511689323</v>
+        <v>0.007100248851111601</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>-0.05214170035251797</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.006330658338711714</v>
+        <v>-0.006330570076386266</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>-0.007883685677702701</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.04691550063389371</v>
+        <v>-0.04691549639434989</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>0.006856380761501413</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.0246605681318357</v>
+        <v>-0.02466056582232845</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>0.01936986197704016</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.01127476776701108</v>
+        <v>-0.01127486257838761</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>0.0913804911936591</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02551659908697701</v>
+        <v>0.02551687949892667</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>-0.03371139328266537</v>
       </c>
       <c r="B117" t="n">
-        <v>0.07399982739437405</v>
+        <v>0.07399954698242439</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>0.043770785975072</v>
       </c>
       <c r="B118" t="n">
-        <v>0.003318976173316557</v>
+        <v>0.003319149205207594</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>0.01101885444004402</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03724807846133871</v>
+        <v>0.03724798878212177</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>-0.01582526439406351</v>
       </c>
       <c r="B120" t="n">
-        <v>0.02918870855696909</v>
+        <v>0.02918862520429499</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>-0.01110131671752157</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.006449298593647512</v>
+        <v>-0.006449054157652512</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>-0.0100581845457679</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.02076956043908318</v>
+        <v>-0.02076980487507818</v>
       </c>
     </row>
     <row r="123">
@@ -1426,7 +1426,7 @@
         <v>0.01314574289204451</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.02760987068615073</v>
+        <v>-0.02760978466234754</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>-0.01503320139794795</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.007711237157845829</v>
+        <v>-0.00771114980222265</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>0.02084293424389649</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.01213762555422804</v>
+        <v>-0.01213779893365441</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>-0.006949915104726756</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01898610197877915</v>
+        <v>0.01898618807683228</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>-0.04850310083198828</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.001067065740514295</v>
+        <v>-0.001066893268665936</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>0.002486802159232582</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.03846943604605535</v>
+        <v>-0.03846942590521252</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>-0.00950689504881197</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.01197838821331132</v>
+        <v>-0.01197874757367856</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>-0.02243747239116978</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.008578513374683183</v>
+        <v>-0.008578239863872739</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>-0.06388169730657545</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.01601527560768723</v>
+        <v>-0.01601527265553671</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>-0.01044269208369109</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.05374448972491663</v>
+        <v>-0.05374447946524263</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>0.1795324892434778</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.02916788696566641</v>
+        <v>-0.02916803256960776</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>0.02283352955286055</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1084222136179278</v>
+        <v>0.108422344282074</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>-0.01571849708059325</v>
       </c>
       <c r="B136" t="n">
-        <v>0.07281846867300601</v>
+        <v>0.07281837174587125</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>0.02894097097910908</v>
       </c>
       <c r="B137" t="n">
-        <v>0.008590415378815663</v>
+        <v>0.008590414658550927</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>0.0915382366931734</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02077642923662815</v>
+        <v>0.02077650928915098</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>0.01168104377544488</v>
       </c>
       <c r="B139" t="n">
-        <v>0.06327023359835593</v>
+        <v>0.06327007006001573</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>0.01391791517117547</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03191158262469784</v>
+        <v>0.03191173131500236</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>-0.03087510251124037</v>
       </c>
       <c r="B141" t="n">
-        <v>0.02767680362445901</v>
+        <v>0.02767672724988657</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>0.03761048387612398</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.01652256696269916</v>
+        <v>-0.01652241871694748</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>-0.03017060445376707</v>
       </c>
       <c r="B143" t="n">
-        <v>0.01410901163084155</v>
+        <v>0.01410886355984076</v>
       </c>
     </row>
   </sheetData>
